--- a/IB220215, IB220280, IB220245 - Defect_Report.xlsx
+++ b/IB220215, IB220280, IB220245 - Defect_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omen\Documents\selenium-tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dokumenti\FIT\y4\s1\FM\p\fm-2025-26-seminarski\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D95B940-AE2D-4E4E-B8E5-8B946B2F50EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75FB40A-697F-4A26-8227-9F0F16FBE4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defect Tracking Log" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
 7. When you enter you credentials you get stuck in an infinite loop
 EXPECTED RESULT: The website leads you back to the list with a pop up dialog of confirmation                             ACTUAL RESULT: User gets stuck in an infinite loop
 VIDEO:
-- https://edufit-my.sharepoint.com/:v:/g/personal/marko_dogan_edu_fit_ba/IQAPfxL3swn9RJva6NXC_yt1AfP24o2XTa__sb1RVZRRqYc?nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=hVIvFN</t>
+- https://edufit-my.sharepoint.com/:v:/g/personal/marko_dogan_edu_fit_ba/IQCJas75YvlvSqafTadRcorFAeYnYSNBDXJP8vQljxz6CCY?nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=lwwNnt</t>
   </si>
   <si>
     <t>1. Open preffered web browser		
@@ -572,7 +572,7 @@
 7. Paste the provided InvalidURL into the field       8. Click Save Changes	
 EXPECTED RESULT: The Website field border changes color to red and error message shown below the field                                             ACTUAL RESULT:	Changes are saved with the invalid URL		
 VIDEO:
-- https://edufit-my.sharepoint.com/:v:/g/personal/marko_dogan_edu_fit_ba/IQCJas75YvlvSqafTadRcorFASMbXpJHw8jLBGBsNIRNfEE?e=SyXVAd</t>
+- https://edufit-my.sharepoint.com/:v:/g/personal/marko_dogan_edu_fit_ba/IQAPfxL3swn9RJva6NXC_yt1AfP24o2XTa__sb1RVZRRqYc?nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJPbmVEcml2ZUZvckJ1c2luZXNzIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXciLCJyZWZlcnJhbFZpZXciOiJNeUZpbGVzTGlua0NvcHkifX0&amp;e=pLORaW</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1076,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1473,7 +1473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="298.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>1</v>
       </c>
